--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -321,27 +321,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -360,44 +342,54 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -415,6 +407,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -719,8 +715,8 @@
   </sheetPr>
   <dimension ref="A1:BS19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="BV18" sqref="BV18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -732,695 +728,695 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A1" s="26"/>
-      <c r="B1" s="61" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="2" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="2" t="s">
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="3"/>
-      <c r="BG1" s="3"/>
-      <c r="BH1" s="3"/>
-      <c r="BI1" s="3"/>
-      <c r="BJ1" s="2" t="s">
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="52"/>
+      <c r="BB1" s="52"/>
+      <c r="BC1" s="52"/>
+      <c r="BD1" s="52"/>
+      <c r="BE1" s="52"/>
+      <c r="BF1" s="52"/>
+      <c r="BG1" s="52"/>
+      <c r="BH1" s="52"/>
+      <c r="BI1" s="52"/>
+      <c r="BJ1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="BK1" s="3"/>
-      <c r="BL1" s="3"/>
-      <c r="BM1" s="3"/>
-      <c r="BN1" s="3"/>
-      <c r="BO1" s="4"/>
+      <c r="BK1" s="52"/>
+      <c r="BL1" s="52"/>
+      <c r="BM1" s="52"/>
+      <c r="BN1" s="52"/>
+      <c r="BO1" s="53"/>
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1"/>
       <c r="BR1" s="1"/>
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="47">
         <v>44977</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="5">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="47">
         <v>44974</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="5">
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="47">
         <v>44991</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="5">
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="47">
         <v>44998</v>
       </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="5">
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="47">
         <v>45005</v>
       </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="5">
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="47">
         <v>45012</v>
       </c>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="5">
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="47">
         <v>45019</v>
       </c>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="5">
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="47">
         <v>45026</v>
       </c>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="5">
+      <c r="AS2" s="48"/>
+      <c r="AT2" s="48"/>
+      <c r="AU2" s="48"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="47">
         <v>45033</v>
       </c>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="6"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="5">
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="48"/>
+      <c r="BB2" s="48"/>
+      <c r="BC2" s="49"/>
+      <c r="BD2" s="47">
         <v>45040</v>
       </c>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="6"/>
-      <c r="BG2" s="6"/>
-      <c r="BH2" s="6"/>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="5">
+      <c r="BE2" s="48"/>
+      <c r="BF2" s="48"/>
+      <c r="BG2" s="48"/>
+      <c r="BH2" s="48"/>
+      <c r="BI2" s="48"/>
+      <c r="BJ2" s="47">
         <v>45047</v>
       </c>
-      <c r="BK2" s="6"/>
-      <c r="BL2" s="6"/>
-      <c r="BM2" s="6"/>
-      <c r="BN2" s="6"/>
-      <c r="BO2" s="7"/>
+      <c r="BK2" s="48"/>
+      <c r="BL2" s="48"/>
+      <c r="BM2" s="48"/>
+      <c r="BN2" s="48"/>
+      <c r="BO2" s="49"/>
       <c r="BP2" s="1"/>
       <c r="BQ2" s="1"/>
       <c r="BR2" s="1"/>
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="8"/>
-      <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="26"/>
-      <c r="AZ3" s="26"/>
-      <c r="BA3" s="26"/>
-      <c r="BB3" s="26"/>
-      <c r="BC3" s="9"/>
-      <c r="BD3" s="8"/>
-      <c r="BE3" s="26"/>
-      <c r="BF3" s="26"/>
-      <c r="BG3" s="26"/>
-      <c r="BH3" s="26"/>
-      <c r="BI3" s="26"/>
-      <c r="BJ3" s="8"/>
-      <c r="BK3" s="26"/>
-      <c r="BL3" s="26"/>
-      <c r="BM3" s="26"/>
-      <c r="BN3" s="26"/>
-      <c r="BO3" s="9"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="3"/>
       <c r="BP3" s="1"/>
       <c r="BQ3" s="1"/>
       <c r="BR3" s="1"/>
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="9"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26"/>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="26"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="26"/>
-      <c r="AZ4" s="26"/>
-      <c r="BA4" s="26"/>
-      <c r="BB4" s="26"/>
-      <c r="BC4" s="9"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="26"/>
-      <c r="BF4" s="26"/>
-      <c r="BG4" s="26"/>
-      <c r="BH4" s="26"/>
-      <c r="BI4" s="26"/>
-      <c r="BJ4" s="8"/>
-      <c r="BK4" s="26"/>
-      <c r="BL4" s="26"/>
-      <c r="BM4" s="26"/>
-      <c r="BN4" s="26"/>
-      <c r="BO4" s="9"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="3"/>
       <c r="BP4" s="1"/>
       <c r="BQ4" s="1"/>
       <c r="BR4" s="1"/>
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="26"/>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="26"/>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="26"/>
-      <c r="AT5" s="26"/>
-      <c r="AU5" s="26"/>
-      <c r="AV5" s="26"/>
-      <c r="AW5" s="9"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="26"/>
-      <c r="AZ5" s="26"/>
-      <c r="BA5" s="26"/>
-      <c r="BB5" s="26"/>
-      <c r="BC5" s="9"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="26"/>
-      <c r="BF5" s="26"/>
-      <c r="BG5" s="26"/>
-      <c r="BH5" s="26"/>
-      <c r="BI5" s="26"/>
-      <c r="BJ5" s="8"/>
-      <c r="BK5" s="26"/>
-      <c r="BL5" s="26"/>
-      <c r="BM5" s="26"/>
-      <c r="BN5" s="26"/>
-      <c r="BO5" s="9"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="3"/>
       <c r="BP5" s="1"/>
       <c r="BQ5" s="1"/>
       <c r="BR5" s="1"/>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
-      <c r="AI6" s="26"/>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="26"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="26"/>
-      <c r="AP6" s="26"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="26"/>
-      <c r="AT6" s="26"/>
-      <c r="AU6" s="26"/>
-      <c r="AV6" s="26"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="14"/>
-      <c r="AY6" s="29"/>
-      <c r="AZ6" s="29"/>
-      <c r="BA6" s="26"/>
-      <c r="BB6" s="26"/>
-      <c r="BC6" s="9"/>
-      <c r="BD6" s="8"/>
-      <c r="BE6" s="26"/>
-      <c r="BF6" s="26"/>
-      <c r="BG6" s="26"/>
-      <c r="BH6" s="26"/>
-      <c r="BI6" s="26"/>
-      <c r="BJ6" s="8"/>
-      <c r="BK6" s="26"/>
-      <c r="BL6" s="26"/>
-      <c r="BM6" s="26"/>
-      <c r="BN6" s="26"/>
-      <c r="BO6" s="9"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="1"/>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="1"/>
+      <c r="BG6" s="1"/>
+      <c r="BH6" s="1"/>
+      <c r="BI6" s="1"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="1"/>
+      <c r="BM6" s="1"/>
+      <c r="BN6" s="1"/>
+      <c r="BO6" s="3"/>
       <c r="BP6" s="1"/>
       <c r="BQ6" s="1"/>
       <c r="BR6" s="1"/>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="26"/>
-      <c r="AJ7" s="26"/>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="26"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="8"/>
-      <c r="AS7" s="26"/>
-      <c r="AT7" s="26"/>
-      <c r="AU7" s="29"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="16"/>
-      <c r="AX7" s="8"/>
-      <c r="AY7" s="26"/>
-      <c r="AZ7" s="26"/>
-      <c r="BA7" s="30"/>
-      <c r="BB7" s="30"/>
-      <c r="BC7" s="9"/>
-      <c r="BD7" s="8"/>
-      <c r="BE7" s="26"/>
-      <c r="BF7" s="26"/>
-      <c r="BG7" s="26"/>
-      <c r="BH7" s="26"/>
-      <c r="BI7" s="26"/>
-      <c r="BJ7" s="8"/>
-      <c r="BK7" s="26"/>
-      <c r="BL7" s="26"/>
-      <c r="BM7" s="26"/>
-      <c r="BN7" s="26"/>
-      <c r="BO7" s="9"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="3"/>
       <c r="BP7" s="1"/>
       <c r="BQ7" s="1"/>
       <c r="BR7" s="1"/>
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="16"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="29"/>
-      <c r="AT8" s="29"/>
-      <c r="AU8" s="26"/>
-      <c r="AV8" s="26"/>
-      <c r="AW8" s="9"/>
-      <c r="AX8" s="8"/>
-      <c r="AY8" s="26"/>
-      <c r="AZ8" s="26"/>
-      <c r="BA8" s="26"/>
-      <c r="BB8" s="26"/>
-      <c r="BC8" s="9"/>
-      <c r="BD8" s="8"/>
-      <c r="BE8" s="26"/>
-      <c r="BF8" s="26"/>
-      <c r="BG8" s="26"/>
-      <c r="BH8" s="26"/>
-      <c r="BI8" s="26"/>
-      <c r="BJ8" s="8"/>
-      <c r="BK8" s="26"/>
-      <c r="BL8" s="26"/>
-      <c r="BM8" s="26"/>
-      <c r="BN8" s="26"/>
-      <c r="BO8" s="9"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+      <c r="BI8" s="1"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="1"/>
+      <c r="BL8" s="1"/>
+      <c r="BM8" s="1"/>
+      <c r="BN8" s="1"/>
+      <c r="BO8" s="3"/>
       <c r="BP8" s="1"/>
       <c r="BQ8" s="1"/>
       <c r="BR8" s="1"/>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20"/>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="19"/>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="20"/>
-      <c r="BB9" s="20"/>
-      <c r="BC9" s="22"/>
-      <c r="BD9" s="23"/>
-      <c r="BE9" s="24"/>
-      <c r="BF9" s="24"/>
-      <c r="BG9" s="24"/>
-      <c r="BH9" s="24"/>
-      <c r="BI9" s="24"/>
-      <c r="BJ9" s="23"/>
-      <c r="BK9" s="24"/>
-      <c r="BL9" s="20"/>
-      <c r="BM9" s="20"/>
-      <c r="BN9" s="20"/>
-      <c r="BO9" s="21"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="14"/>
+      <c r="AT9" s="14"/>
+      <c r="AU9" s="14"/>
+      <c r="AV9" s="14"/>
+      <c r="AW9" s="15"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="14"/>
+      <c r="AZ9" s="14"/>
+      <c r="BA9" s="14"/>
+      <c r="BB9" s="14"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="17"/>
+      <c r="BE9" s="18"/>
+      <c r="BF9" s="18"/>
+      <c r="BG9" s="18"/>
+      <c r="BH9" s="18"/>
+      <c r="BI9" s="18"/>
+      <c r="BJ9" s="17"/>
+      <c r="BK9" s="18"/>
+      <c r="BL9" s="14"/>
+      <c r="BM9" s="14"/>
+      <c r="BN9" s="14"/>
+      <c r="BO9" s="15"/>
       <c r="BP9" s="1"/>
       <c r="BQ9" s="1"/>
       <c r="BR9" s="1"/>
@@ -1499,14 +1495,14 @@
     </row>
     <row r="11" spans="1:71" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="I11" s="25"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1518,13 +1514,13 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="T11" s="10"/>
+      <c r="T11" s="4"/>
       <c r="U11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="AA11" s="15"/>
+      <c r="AA11" s="9"/>
       <c r="AB11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1535,7 +1531,7 @@
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
-      <c r="AK11" s="17"/>
+      <c r="AK11" s="11"/>
       <c r="AL11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1545,7 +1541,7 @@
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
-      <c r="AU11" s="44"/>
+      <c r="AU11" s="26"/>
       <c r="AV11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1556,19 +1552,19 @@
       <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
-      <c r="BE11" s="58"/>
-      <c r="BF11" s="60" t="s">
+      <c r="BE11" s="37"/>
+      <c r="BF11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="BG11" s="59"/>
-      <c r="BH11" s="59"/>
-      <c r="BI11" s="59"/>
-      <c r="BJ11" s="59"/>
-      <c r="BK11" s="59"/>
-      <c r="BL11" s="59"/>
-      <c r="BM11" s="59"/>
-      <c r="BN11" s="59"/>
-      <c r="BO11" s="59"/>
+      <c r="BG11" s="46"/>
+      <c r="BH11" s="46"/>
+      <c r="BI11" s="46"/>
+      <c r="BJ11" s="46"/>
+      <c r="BK11" s="46"/>
+      <c r="BL11" s="46"/>
+      <c r="BM11" s="46"/>
+      <c r="BN11" s="46"/>
+      <c r="BO11" s="46"/>
       <c r="BP11" s="1"/>
       <c r="BQ11" s="1"/>
       <c r="BR11" s="1"/>

--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9956d9af7fd81f7e/Documents/grad_school/nl_stochastic_opt/nl_stochastic_opt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="294" documentId="8_{20BEF8BB-DA2D-4377-8509-48CFC8BB7B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{647C4338-B24A-4608-860A-0F94A36DB2EB}"/>
+  <xr:revisionPtr revIDLastSave="324" documentId="8_{20BEF8BB-DA2D-4377-8509-48CFC8BB7B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3EACF03-6F07-4578-A720-AFFD1A844297}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{BD79938D-CA6A-44DE-8BF3-4C0AD6186C3B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Februrary</t>
-  </si>
-  <si>
-    <t>BO</t>
   </si>
   <si>
     <t>Status Update</t>
@@ -97,6 +94,15 @@
   <si>
     <t>Pseudocode &amp; Programming</t>
   </si>
+  <si>
+    <t>MathTyping</t>
+  </si>
+  <si>
+    <t>Organize JNB</t>
+  </si>
+  <si>
+    <t>Distill Final Results</t>
+  </si>
 </sst>
 </file>
 
@@ -130,7 +136,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,8 +189,20 @@
     <fill>
       <patternFill patternType="gray0625"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -317,11 +335,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -392,6 +423,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,10 +452,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,8 +756,8 @@
   </sheetPr>
   <dimension ref="A1:BS19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="104" workbookViewId="0">
-      <selection activeCell="BV18" sqref="BV18"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="104" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -770,7 +811,7 @@
       <c r="AJ1" s="52"/>
       <c r="AK1" s="53"/>
       <c r="AL1" s="51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM1" s="52"/>
       <c r="AN1" s="52"/>
@@ -796,7 +837,7 @@
       <c r="BH1" s="52"/>
       <c r="BI1" s="52"/>
       <c r="BJ1" s="51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK1" s="52"/>
       <c r="BL1" s="52"/>
@@ -979,7 +1020,7 @@
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="37"/>
@@ -1127,7 +1168,7 @@
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A6" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="37"/>
@@ -1275,7 +1316,7 @@
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A8" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="37"/>
@@ -1349,7 +1390,7 @@
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A9" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="44"/>
@@ -1497,14 +1538,14 @@
       <c r="A11" s="1"/>
       <c r="B11" s="7"/>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="I11" s="19"/>
       <c r="J11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1515,14 +1556,12 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="T11" s="4"/>
-      <c r="U11" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="AA11" s="9"/>
       <c r="AB11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
@@ -1533,7 +1572,7 @@
       <c r="AI11" s="1"/>
       <c r="AK11" s="11"/>
       <c r="AL11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
@@ -1543,7 +1582,7 @@
       <c r="AR11" s="1"/>
       <c r="AU11" s="26"/>
       <c r="AV11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW11" s="1"/>
       <c r="AX11" s="1"/>
@@ -1554,7 +1593,7 @@
       <c r="BC11" s="1"/>
       <c r="BE11" s="37"/>
       <c r="BF11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BG11" s="46"/>
       <c r="BH11" s="46"/>
@@ -1581,6 +1620,40 @@
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
+      <c r="B13" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="53"/>
       <c r="BC13" s="1"/>
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
@@ -1599,7 +1672,46 @@
       <c r="BR13" s="1"/>
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A14" s="1"/>
+      <c r="B14" s="47">
+        <v>45019</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="47">
+        <v>45026</v>
+      </c>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="47">
+        <v>45033</v>
+      </c>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="47">
+        <v>45040</v>
+      </c>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="47">
+        <v>45047</v>
+      </c>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="49"/>
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
@@ -1628,7 +1740,46 @@
       <c r="BR14" s="1"/>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A15" s="1"/>
+      <c r="A15" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
@@ -1663,11 +1814,39 @@
       <c r="BR15" s="1"/>
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
+      <c r="A16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="59"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
@@ -1709,17 +1888,39 @@
       <c r="BR16" s="1"/>
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.45">
-      <c r="A17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
+      <c r="A17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="59"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
@@ -1761,151 +1962,84 @@
       <c r="BR17" s="1"/>
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.45">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="1"/>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
-      <c r="AQ18" s="1"/>
-      <c r="AR18" s="1"/>
-      <c r="AS18" s="1"/>
-      <c r="AT18" s="1"/>
-      <c r="AU18" s="1"/>
-      <c r="AV18" s="1"/>
-      <c r="AW18" s="1"/>
-      <c r="AX18" s="1"/>
-      <c r="AY18" s="1"/>
-      <c r="AZ18" s="1"/>
-      <c r="BA18" s="1"/>
-      <c r="BB18" s="1"/>
-      <c r="BC18" s="1"/>
-      <c r="BD18" s="1"/>
-      <c r="BE18" s="1"/>
-      <c r="BF18" s="1"/>
-      <c r="BG18" s="1"/>
-      <c r="BH18" s="1"/>
-      <c r="BI18" s="1"/>
-      <c r="BJ18" s="1"/>
-      <c r="BK18" s="1"/>
-      <c r="BL18" s="1"/>
-      <c r="BM18" s="1"/>
-      <c r="BN18" s="1"/>
-      <c r="BO18" s="1"/>
-      <c r="BP18" s="1"/>
-      <c r="BQ18" s="1"/>
-      <c r="BR18" s="1"/>
+      <c r="A18" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="59"/>
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.45">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="1"/>
-      <c r="AR19" s="1"/>
-      <c r="AS19" s="1"/>
-      <c r="AT19" s="1"/>
-      <c r="AU19" s="1"/>
-      <c r="AV19" s="1"/>
-      <c r="AW19" s="1"/>
-      <c r="AX19" s="1"/>
-      <c r="AY19" s="1"/>
-      <c r="AZ19" s="1"/>
-      <c r="BA19" s="1"/>
-      <c r="BB19" s="1"/>
-      <c r="BC19" s="1"/>
-      <c r="BD19" s="1"/>
-      <c r="BE19" s="1"/>
-      <c r="BF19" s="1"/>
-      <c r="BG19" s="1"/>
-      <c r="BH19" s="1"/>
-      <c r="BI19" s="1"/>
-      <c r="BJ19" s="1"/>
-      <c r="BK19" s="1"/>
-      <c r="BL19" s="1"/>
-      <c r="BM19" s="1"/>
-      <c r="BN19" s="1"/>
-      <c r="BO19" s="1"/>
-      <c r="BP19" s="1"/>
-      <c r="BQ19" s="1"/>
-      <c r="BR19" s="1"/>
+      <c r="A19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
+      <c r="AE19" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="22">
+    <mergeCell ref="B13:Y13"/>
+    <mergeCell ref="Z13:AE13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="Z14:AE14"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="B1:M1"/>
